--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://penno365-my.sharepoint.com/personal/jessijha_upenn_edu/Documents/Spring 2024/ESE 3500/Lab 3 - Theremin/lab-3-theremin-jsjha/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D6A24699-E61E-4639-988C-DF2BBD90B850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39CA63FA-3823-4FA4-9E81-4CD0738C800E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D6A24699-E61E-4639-988C-DF2BBD90B850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD0FCDA6-194C-42C1-872D-8F2B287A4A70}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E5CACB6-192B-4FA3-9921-A1B2A9816AB1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8E5CACB6-192B-4FA3-9921-A1B2A9816AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BFAF28B-9B6E-46FF-8FFB-E1A90A3FFD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139699" y="3635375"/>
+          <a:ext cx="6137275" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -530,9 +580,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E196B0A0-0B9F-407B-9A51-DD9876A1A371}">
-  <dimension ref="D1:L9"/>
+  <dimension ref="D1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -544,6 +594,9 @@
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="L9" s="1"/>
     </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
